--- a/sandbox/data/yieldfiles_2021/2021_USB 5 Late_PLY.xlsx
+++ b/sandbox/data/yieldfiles_2021/2021_USB 5 Late_PLY.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehuie\Nextcloud\MIAN\2021 Mian\Harvest Info\2021_Yield_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA5BA9C9-9127-4137-9B72-943B46038C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B2E87-52FE-48B0-A7AE-265508FC64B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29F9930B-B006-460A-A5B0-55E20EF27A03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$25</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
   <si>
     <t>Genotype</t>
   </si>
@@ -115,6 +109,18 @@
   </si>
   <si>
     <t>N17-682</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>thin</t>
   </si>
 </sst>
 </file>
@@ -479,11 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF3D7A1-3B6F-4875-940D-85BE003AD3C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,12 +583,24 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="J2" s="3">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>43</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1660.9</v>
+      </c>
+      <c r="O2" s="3">
+        <v>11.7</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -613,12 +631,24 @@
       <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="J3" s="3">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1835.8</v>
+      </c>
+      <c r="O3" s="3">
+        <v>11.8</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -649,14 +679,28 @@
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="J4" s="3">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1726.1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>13.4</v>
+      </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -685,12 +729,24 @@
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="J5" s="3">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2046</v>
+      </c>
+      <c r="O5" s="3">
+        <v>14.8</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -721,12 +777,24 @@
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="J6" s="3">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>38</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1725.8</v>
+      </c>
+      <c r="O6" s="3">
+        <v>13.4</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -757,12 +825,24 @@
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="J7" s="3">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>32</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1570.5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>13.3</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -793,12 +873,24 @@
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="J8" s="3">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>33</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1893.1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>11.2</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -829,12 +921,24 @@
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="J9" s="3">
+        <v>34</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>36</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2385.6</v>
+      </c>
+      <c r="O9" s="3">
+        <v>12.2</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -865,12 +969,24 @@
       <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="J10" s="3">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>33</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2275.1999999999998</v>
+      </c>
+      <c r="O10" s="3">
+        <v>12.7</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -901,12 +1017,24 @@
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="J11" s="3">
+        <v>42</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>26</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2130.5</v>
+      </c>
+      <c r="O11" s="3">
+        <v>14</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -937,12 +1065,24 @@
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="J12" s="3">
+        <v>43</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>38</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1758</v>
+      </c>
+      <c r="O12" s="3">
+        <v>12.9</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -973,12 +1113,24 @@
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="J13" s="3">
+        <v>35</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>20</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2014.2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>16.600000000000001</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1009,12 +1161,24 @@
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="J14" s="3">
+        <v>34</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>23</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1483.6</v>
+      </c>
+      <c r="O14" s="3">
+        <v>11.9</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1045,12 +1209,24 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="J15" s="3">
+        <v>35</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1728.3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>10</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1081,12 +1257,24 @@
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="J16" s="3">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>34</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2139</v>
+      </c>
+      <c r="O16" s="3">
+        <v>14.8</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1117,12 +1305,24 @@
       <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="J17" s="3">
+        <v>34</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>35</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2221.8000000000002</v>
+      </c>
+      <c r="O17" s="3">
+        <v>12.1</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1153,11 +1353,17 @@
       <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3">
+        <v>1994.6</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1189,11 +1395,17 @@
       <c r="I19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>2080.1</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1225,11 +1437,17 @@
       <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3">
+        <v>2025.3</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -1261,11 +1479,17 @@
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>1686.3</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1297,11 +1521,17 @@
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3">
+        <v>2454.9</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1333,11 +1563,17 @@
       <c r="I23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>2136</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1369,11 +1605,17 @@
       <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3">
+        <v>1999.4</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -1405,17 +1647,26 @@
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>2439.1999999999998</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R25">
+    <sortCondition ref="H2:H25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>